--- a/Assets/Excel/Buff.xlsx
+++ b/Assets/Excel/Buff.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002A5026-4F13-481F-B4A8-0A33ABCE6880}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B823B6-FA23-4802-8E54-EC1765B64C5C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6600" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2910" yWindow="3630" windowWidth="15465" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -445,14 +445,14 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="5.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.25" bestFit="1" customWidth="1"/>
